--- a/biology/Zoologie/Beierolpium_deserticola/Beierolpium_deserticola.xlsx
+++ b/biology/Zoologie/Beierolpium_deserticola/Beierolpium_deserticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Beierolpium deserticola est une espèce de pseudoscorpions de la famille des Olpiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Botswana et au Zimbabwe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Botswana et au Zimbabwe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 2,7 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 2,7 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Calocheiridius deserticola par Beier en 1964. Elle est placée dans le genre Xenolpium par Beier en 1965[3] puis dans le genre Beierolpium par Mahnert en 1982[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Calocheiridius deserticola par Beier en 1964. Elle est placée dans le genre Xenolpium par Beier en 1965 puis dans le genre Beierolpium par Mahnert en 1982.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Beier, 1964 : Weiteres zur Kenntnis der Pseudoscorpioniden-Fauna des südlichen Afrika. Annals of the Natal Museum, vol. 16, p. 30-90 (texte intégral).</t>
         </is>
